--- a/QLTB/qltb1.xlsx
+++ b/QLTB/qltb1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -46,9 +46,6 @@
     <t>Máy đặt</t>
   </si>
   <si>
-    <t>Máy ly tâm 8 ống</t>
-  </si>
-  <si>
     <t>PLC-03</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Nhật</t>
   </si>
   <si>
-    <t>Bộ đèn soi ven - Vledx</t>
-  </si>
-  <si>
     <t>V-ledx</t>
   </si>
   <si>
@@ -265,18 +259,12 @@
     <t>iCRco-Mỹ</t>
   </si>
   <si>
-    <t>Hệ thống chuyển đổi số hóa X-quang: tấm cảm biến FXRD-1717NB</t>
-  </si>
-  <si>
     <t>FXRD-1717NB</t>
   </si>
   <si>
     <t>Vieworks</t>
   </si>
   <si>
-    <t>Hệ thống chuyển đổi số hóa X - quang: tấm cảm biến FXRD-1717NB</t>
-  </si>
-  <si>
     <t>Vieworks Co., Ltd</t>
   </si>
   <si>
@@ -385,24 +373,15 @@
     <t>HS70A</t>
   </si>
   <si>
-    <t>Máy siêu âm màu Doppler</t>
-  </si>
-  <si>
     <t>Sonoace R7</t>
   </si>
   <si>
     <t>Sam sung Medison</t>
   </si>
   <si>
-    <t>Máy siêu âm màu</t>
-  </si>
-  <si>
     <t>Sonoace - X7 (SA-X7)</t>
   </si>
   <si>
-    <t>Máy siêu âm Doppler màu</t>
-  </si>
-  <si>
     <t>Đèn mổ 5 bóng L735-II</t>
   </si>
   <si>
@@ -418,9 +397,6 @@
     <t>L734-II</t>
   </si>
   <si>
-    <t>Bộ khám đặt nội khí quản (3 lưỡi lớn)</t>
-  </si>
-  <si>
     <t>JPE</t>
   </si>
   <si>
@@ -445,15 +421,9 @@
     <t>YUYUE China</t>
   </si>
   <si>
-    <t>Máy hút dịch 1 bình 7E-A/B/D</t>
-  </si>
-  <si>
     <t>7E-A/B/D</t>
   </si>
   <si>
-    <t>Máy SPO2</t>
-  </si>
-  <si>
     <t>MD300C2</t>
   </si>
   <si>
@@ -487,9 +457,6 @@
     <t>SA-232 (F-A100)</t>
   </si>
   <si>
-    <t xml:space="preserve">Máy hút dịch </t>
-  </si>
-  <si>
     <t>Vaculine Maxi</t>
   </si>
   <si>
@@ -508,9 +475,6 @@
     <t>Daiwha</t>
   </si>
   <si>
-    <t>Hệ thống phẫu thuật nội soi ổ bụng trong ngoại khoa - sản phụ khoa</t>
-  </si>
-  <si>
     <t>Karl Srorz</t>
   </si>
   <si>
@@ -559,18 +523,12 @@
     <t>Đèn phẫu thuật 1 nhánh</t>
   </si>
   <si>
-    <t>Monitor theo dõi bệnh nhân model BPM-1200</t>
-  </si>
-  <si>
     <t>BPM-1200</t>
   </si>
   <si>
     <t>Bionics</t>
   </si>
   <si>
-    <t>Monitor theo dõi bệnh nhân model BPM-770</t>
-  </si>
-  <si>
     <t>BPM770</t>
   </si>
   <si>
@@ -592,9 +550,6 @@
     <t>Shin-ei Samko</t>
   </si>
   <si>
-    <t>Ống soi niệu quản - bể thận</t>
-  </si>
-  <si>
     <t>27001L</t>
   </si>
   <si>
@@ -622,9 +577,6 @@
     <t xml:space="preserve">YUYUE </t>
   </si>
   <si>
-    <t xml:space="preserve">Máy tạo oxy </t>
-  </si>
-  <si>
     <t>YUYUE</t>
   </si>
   <si>
@@ -652,18 +604,12 @@
     <t>Shanghai Raykeen Technology Co.,Ltd</t>
   </si>
   <si>
-    <t>Bàn mổ điện động</t>
-  </si>
-  <si>
     <t>DT-12F</t>
   </si>
   <si>
     <t>Yao Cheng</t>
   </si>
   <si>
-    <t>Máy monitor theo dõi bệnh nhân</t>
-  </si>
-  <si>
     <t>Aurora 12</t>
   </si>
   <si>
@@ -694,9 +640,6 @@
     <t>Woodpecker</t>
   </si>
   <si>
-    <t>Máy cạo vôi</t>
-  </si>
-  <si>
     <t>Máy mài nhựa strong</t>
   </si>
   <si>
@@ -706,9 +649,6 @@
     <t>Saeshin</t>
   </si>
   <si>
-    <t>Thiết bị y tế (ghế nha khoa)</t>
-  </si>
-  <si>
     <t>ZC-S300</t>
   </si>
   <si>
@@ -775,9 +715,6 @@
     <t>FX-203</t>
   </si>
   <si>
-    <t>Đèn mổ 4 bóng</t>
-  </si>
-  <si>
     <t>Đèn khám mắt</t>
   </si>
   <si>
@@ -796,9 +733,6 @@
     <t>Máy tạo oxy</t>
   </si>
   <si>
-    <t>Máy bơm tiêm điện - Ferfusor compact 230-240V</t>
-  </si>
-  <si>
     <t>Ferfusor compact</t>
   </si>
   <si>
@@ -814,27 +748,18 @@
     <t>Mortara Instrument, Inc</t>
   </si>
   <si>
-    <t>Máy điện tim</t>
-  </si>
-  <si>
     <t>ECG300G</t>
   </si>
   <si>
     <t>Contec</t>
   </si>
   <si>
-    <t>Máy chạy thận nhân tạo - SURDIAL</t>
-  </si>
-  <si>
     <t>Surdial</t>
   </si>
   <si>
     <t>Nipro</t>
   </si>
   <si>
-    <t>Máy chạy thận nhân tạo</t>
-  </si>
-  <si>
     <t>Dialog</t>
   </si>
   <si>
@@ -868,9 +793,6 @@
     <t>Metrax</t>
   </si>
   <si>
-    <t>Hệ thống nội soi dạ dày + đại tràng sử dụng nguồn sáng xenon</t>
-  </si>
-  <si>
     <t>EPK-3000</t>
   </si>
   <si>
@@ -943,18 +865,12 @@
     <t>Fukuda Denshi</t>
   </si>
   <si>
-    <t>Máy điện châm</t>
-  </si>
-  <si>
     <t>SDZ-II</t>
   </si>
   <si>
     <t>Suzhou Medical</t>
   </si>
   <si>
-    <t>Đèn hồng ngoại (Đèn trị liệu tần phổ)</t>
-  </si>
-  <si>
     <t>TDP-12DL</t>
   </si>
   <si>
@@ -967,9 +883,6 @@
     <t>Xiangyu-China</t>
   </si>
   <si>
-    <t>Bộ tập đa chức năng (8 chức năng)</t>
-  </si>
-  <si>
     <t>XY-14-8B</t>
   </si>
   <si>
@@ -1033,9 +946,6 @@
     <t>BT-300</t>
   </si>
   <si>
-    <t>Máy monitor</t>
-  </si>
-  <si>
     <t>Máy tán sỏi ngoài cơ thể</t>
   </si>
   <si>
@@ -1045,9 +955,6 @@
     <t>Huikang</t>
   </si>
   <si>
-    <t>Thiết bị nội soi tai mũi họng + màn hình chuyên dụng + xe đẩy chuyên dụng</t>
-  </si>
-  <si>
     <t>HB250/XL100</t>
   </si>
   <si>
@@ -1057,15 +964,9 @@
     <t>Việt - Hàn</t>
   </si>
   <si>
-    <t>Thiết bị nội soi tai mũi họng medtrix</t>
-  </si>
-  <si>
     <t>LS800/XLC200</t>
   </si>
   <si>
-    <t>Máy nội soi tai mũi họng</t>
-  </si>
-  <si>
     <t>Bộ nội soi bàng quang</t>
   </si>
   <si>
@@ -1081,9 +982,6 @@
     <t>EG290Kp</t>
   </si>
   <si>
-    <t>Dây nội soi dạ dày đường mũi GIF-XP260N: 2702094</t>
-  </si>
-  <si>
     <t>GIF-XP260N: 2702094</t>
   </si>
   <si>
@@ -1105,15 +1003,9 @@
     <t>Rudolf Riester GmbH</t>
   </si>
   <si>
-    <t>Bộ đặt nội khí quản người lớn</t>
-  </si>
-  <si>
     <t>04.4110.04</t>
   </si>
   <si>
-    <t>Bộ đặt nội khí quản người lớn (3 lưởi: 90mm, 100mm, 130mm)</t>
-  </si>
-  <si>
     <t>Máy lấy cao răng ký hiện UC-600</t>
   </si>
   <si>
@@ -1147,9 +1039,6 @@
     <t>Dlab-Mỹ</t>
   </si>
   <si>
-    <t>Máy lắc Vortex (Vortex Mixer)</t>
-  </si>
-  <si>
     <t>MX-F</t>
   </si>
   <si>
@@ -1162,15 +1051,6 @@
     <t>Dlab</t>
   </si>
   <si>
-    <t>Micropipette có hấp 1 kênh thể tích 0.5-10µl (xanh dương)_Dlab</t>
-  </si>
-  <si>
-    <t>Micropipette có hấp 1 kênh thể tích 10-100µl (xanh dương)_Dlab</t>
-  </si>
-  <si>
-    <t>Micropipette có hấp 1 kênh thể tích 100-1000µl (xanh dương)_Dlab</t>
-  </si>
-  <si>
     <t>Scilogex (Dlab) - Mỹ</t>
   </si>
   <si>
@@ -1238,6 +1118,126 @@
   </si>
   <si>
     <t>Micropipet 10-100ul</t>
+  </si>
+  <si>
+    <t>Thiết bị y tế</t>
+  </si>
+  <si>
+    <t>Máy chạy thận nhân tạo SURDIAL</t>
+  </si>
+  <si>
+    <t>Bộ đèn soi ven Vledx</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển đổi số hóa X-quang tấm cảm biến FXRD-1717NB</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển đổi số hóa X - quang tấm cảm biến FXRD-1717NB</t>
+  </si>
+  <si>
+    <t>Hệ thống phẫu thuật nội soi ổ bụng trong ngoại khoa sản phụ khoa</t>
+  </si>
+  <si>
+    <t>Monitor theo dõi bệnh nhân model BPM1200</t>
+  </si>
+  <si>
+    <t>Monitor theo dõi bệnh nhân model BPM770</t>
+  </si>
+  <si>
+    <t>Ống soi niệu quản bể thận</t>
+  </si>
+  <si>
+    <t>Máy bơm tiêm điện Ferfusor compact 230-240V</t>
+  </si>
+  <si>
+    <t>Hệ thống nội soi dạ dày đại tràng sử dụng nguồn sáng xenon</t>
+  </si>
+  <si>
+    <t>Đèn hồng ngoại Đèn trị liệu tần phổ</t>
+  </si>
+  <si>
+    <t>Bộ tập đa chức năng 8 chức năng</t>
+  </si>
+  <si>
+    <t>Thiết bị nội soi tai mũi họng màn hình chuyên dụng xe đẩy chuyên dụng</t>
+  </si>
+  <si>
+    <t>Dây nội soi dạ dày đường mũi GIF-XP260N 2702094</t>
+  </si>
+  <si>
+    <t>Bộ đặt nội khí quản người lớn 3 lưởi 90mm 100mm 130mm</t>
+  </si>
+  <si>
+    <t>Máy lắc Vortex Vortex Mixer</t>
+  </si>
+  <si>
+    <t>Micropipette có hấp 1 kênh thể tích 0.5-10µl xanh dương Dlab</t>
+  </si>
+  <si>
+    <t>Micropipette có hấp 1 kênh thể tích 10-100µl xanh dương Dlab</t>
+  </si>
+  <si>
+    <t>Micropipette có hấp 1 kênh thể tích 100-1000µl xanh dương Dlab</t>
+  </si>
+  <si>
+    <t>Máy ly tâm 8</t>
+  </si>
+  <si>
+    <t>Máy siêu âm màu Doppler A</t>
+  </si>
+  <si>
+    <t>Máy siêu âm màu B</t>
+  </si>
+  <si>
+    <t>Máy siêu âm Doppler màu C</t>
+  </si>
+  <si>
+    <t>Máy hút dịch 1 bình 7E A B D</t>
+  </si>
+  <si>
+    <t>Máy hút dịch A</t>
+  </si>
+  <si>
+    <t>Máy tạo oxy 1</t>
+  </si>
+  <si>
+    <t>Bàn mổ điện động A</t>
+  </si>
+  <si>
+    <t>Máy monitor theo dõi bệnh nhân D A</t>
+  </si>
+  <si>
+    <t>Máy cạo vôi D A</t>
+  </si>
+  <si>
+    <t>Đèn mổ 4 bóng D A</t>
+  </si>
+  <si>
+    <t>Máy điện tim A</t>
+  </si>
+  <si>
+    <t>Máy chạy thận nhân tạo D A</t>
+  </si>
+  <si>
+    <t>Bộ đặt nội khí quản người lớn D A</t>
+  </si>
+  <si>
+    <t>Máy SPO2 D A</t>
+  </si>
+  <si>
+    <t>Bộ khám đặt nội khí quản D A</t>
+  </si>
+  <si>
+    <t>Máy điện châm D A</t>
+  </si>
+  <si>
+    <t>Máy monitor D A Z X C V</t>
+  </si>
+  <si>
+    <t>Thiết bị nội soi tai mũi họng medtrix D A</t>
+  </si>
+  <si>
+    <t>Máy nội soi tai mũi họng D A Z</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1506,7 +1506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1541,7 +1541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1752,16 +1752,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -1835,21 +1836,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="9">
         <v>2015</v>
@@ -1871,21 +1872,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="9">
         <v>2015</v>
@@ -1907,21 +1908,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="9">
         <v>2016</v>
@@ -1943,15 +1944,15 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>2</v>
@@ -1979,15 +1980,15 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>2</v>
@@ -2015,21 +2016,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="F8" s="9">
         <v>2015</v>
@@ -2051,21 +2052,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="9">
         <v>2018</v>
@@ -2087,21 +2088,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="F10" s="9">
         <v>2017</v>
@@ -2123,21 +2124,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="60">
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="F11" s="9">
         <v>2015</v>
@@ -2159,21 +2160,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="75">
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="F12" s="9">
         <v>2015</v>
@@ -2195,21 +2196,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="105">
+    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="F13" s="9">
         <v>2016</v>
@@ -2231,21 +2232,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="120">
+    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F14" s="9">
         <v>2018</v>
@@ -2263,27 +2264,27 @@
         <v>6586554000</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L14" s="6">
         <v>92120</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60">
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="9">
         <v>2018</v>
@@ -2307,21 +2308,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="60">
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="9">
         <v>2019</v>
@@ -2343,21 +2344,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="60">
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="9">
         <v>2019</v>
@@ -2379,18 +2380,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="45">
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>8</v>
@@ -2416,18 +2417,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="45">
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>8</v>
@@ -2453,21 +2454,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="45">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>20</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="F20" s="9">
         <v>2014</v>
@@ -2489,18 +2490,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="60">
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>8</v>
@@ -2525,18 +2526,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="75">
+    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>8</v>
@@ -2557,27 +2558,27 @@
         <v>390000000</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L22" s="6">
         <v>92120</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="F23" s="9">
         <v>2018</v>
@@ -2597,21 +2598,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="60">
+    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="E24" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="9">
         <v>2015</v>
@@ -2633,18 +2634,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="135">
+    <row r="25" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>8</v>
@@ -2669,18 +2670,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="135">
+    <row r="26" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>86</v>
+        <v>372</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>8</v>
@@ -2705,21 +2706,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="45">
+    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F27" s="9">
         <v>2017</v>
@@ -2743,21 +2744,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="45">
+    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>28</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="D28" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F28" s="9">
         <v>2017</v>
@@ -2781,21 +2782,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="75">
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>29</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F29" s="9">
         <v>2017</v>
@@ -2813,27 +2814,27 @@
         <v>5400000000</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L29" s="6">
         <v>92120</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="60">
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F30" s="9">
         <v>2017</v>
@@ -2848,28 +2849,28 @@
         <v>1</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6">
         <v>92120</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="75">
+    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F31" s="9">
         <v>2017</v>
@@ -2884,28 +2885,28 @@
         <v>1</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6">
         <v>92120</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="75">
+    <row r="32" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>32</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F32" s="9">
         <v>2018</v>
@@ -2927,18 +2928,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="60">
+    <row r="33" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>8</v>
@@ -2963,18 +2964,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="60">
+    <row r="34" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>8</v>
@@ -2999,18 +3000,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="45">
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>35</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>8</v>
@@ -3035,21 +3036,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45">
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="E36" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F36" s="9">
         <v>2017</v>
@@ -3071,18 +3072,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="90">
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>37</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>8</v>
@@ -3107,18 +3108,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="45">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>38</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>123</v>
+        <v>389</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>8</v>
@@ -3143,18 +3144,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="45">
+    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>126</v>
+        <v>390</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>8</v>
@@ -3179,18 +3180,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="45">
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>40</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>8</v>
@@ -3211,24 +3212,24 @@
         <v>431490000</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L40" s="6">
         <v>92120</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="60">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>41</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>128</v>
+        <v>391</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>8</v>
@@ -3253,21 +3254,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="45">
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>42</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F42" s="9">
         <v>2014</v>
@@ -3289,21 +3290,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="45">
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>43</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="9">
         <v>2014</v>
@@ -3325,21 +3326,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="75">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>44</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F44" s="9">
         <v>2016</v>
@@ -3361,21 +3362,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="60">
+    <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F45" s="9">
         <v>2017</v>
@@ -3397,21 +3398,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="45">
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>46</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="9">
         <v>2015</v>
@@ -3433,21 +3434,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="45">
+    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>47</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="9">
         <v>2018</v>
@@ -3469,21 +3470,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="60">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>48</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>143</v>
+        <v>392</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="9">
         <v>2018</v>
@@ -3506,21 +3507,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="105">
+    <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>49</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F49" s="9">
         <v>2018</v>
@@ -3543,21 +3544,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="45">
+    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>50</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C50" s="9">
         <v>3008</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50" s="9">
         <v>2016</v>
@@ -3579,21 +3580,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="45">
+    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" s="9">
         <v>2015</v>
@@ -3615,21 +3616,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="30">
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>52</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" s="9">
         <v>2015</v>
@@ -3651,21 +3652,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="45">
+    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>53</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" s="9">
         <v>2017</v>
@@ -3687,21 +3688,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="30">
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>157</v>
+        <v>393</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F54" s="9">
         <v>2016</v>
@@ -3723,18 +3724,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30">
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>55</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>8</v>
@@ -3759,21 +3760,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="150">
+    <row r="56" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>56</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>164</v>
+        <v>373</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F56" s="9">
         <v>2017</v>
@@ -3795,21 +3796,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="75">
+    <row r="57" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F57" s="9">
         <v>2017</v>
@@ -3831,18 +3832,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30">
+    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>58</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>8</v>
@@ -3867,18 +3868,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="45">
+    <row r="59" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>59</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>8</v>
@@ -3903,21 +3904,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="30">
+    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F60" s="9">
         <v>2017</v>
@@ -3939,18 +3940,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="45">
+    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>61</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>8</v>
@@ -3975,18 +3976,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="45">
+    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>62</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>8</v>
@@ -4011,18 +4012,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="105">
+    <row r="63" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>181</v>
+        <v>374</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>8</v>
@@ -4047,18 +4048,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="105">
+    <row r="64" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>64</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>184</v>
+        <v>375</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>8</v>
@@ -4083,21 +4084,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="90">
+    <row r="65" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>65</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F65" s="9">
         <v>2018</v>
@@ -4119,21 +4120,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="45">
+    <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F66" s="9">
         <v>2018</v>
@@ -4155,21 +4156,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="45">
+    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>67</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>192</v>
+        <v>376</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F67" s="9">
         <v>2018</v>
@@ -4191,21 +4192,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="90">
+    <row r="68" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>68</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F68" s="9">
         <v>2018</v>
@@ -4227,21 +4228,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="105">
+    <row r="69" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F69" s="9">
         <v>2018</v>
@@ -4263,21 +4264,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="45">
+    <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>70</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F70" s="9">
         <v>2018</v>
@@ -4299,21 +4300,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="45">
+    <row r="71" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>71</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>202</v>
+        <v>394</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F71" s="9">
         <v>2016</v>
@@ -4335,21 +4336,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="75">
+    <row r="72" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F72" s="9">
         <v>2018</v>
@@ -4371,18 +4372,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="45">
+    <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>73</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>8</v>
@@ -4407,21 +4408,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="75">
+    <row r="74" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>74</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F74" s="9">
         <v>2018</v>
@@ -4443,21 +4444,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="45">
+    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>75</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F75" s="9">
         <v>2019</v>
@@ -4479,21 +4480,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="75">
+    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>76</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>215</v>
+        <v>396</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F76" s="9">
         <v>2018</v>
@@ -4515,21 +4516,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="60">
+    <row r="77" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>77</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="F77" s="9">
         <v>2006</v>
@@ -4538,7 +4539,7 @@
         <v>2018</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="I77" s="9">
         <v>1</v>
@@ -4547,27 +4548,27 @@
         <v>4500000000</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L77" s="6">
         <v>92120</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="60">
+    <row r="78" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>78</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F78" s="9">
         <v>2016</v>
@@ -4589,21 +4590,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="30">
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>79</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>226</v>
+        <v>397</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F79" s="9">
         <v>2018</v>
@@ -4625,21 +4626,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="60">
+    <row r="80" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>80</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F80" s="9">
         <v>2018</v>
@@ -4661,18 +4662,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="45">
+    <row r="81" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>81</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>8</v>
@@ -4697,21 +4698,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="60">
+    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>82</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>230</v>
+        <v>368</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F82" s="9">
         <v>2015</v>
@@ -4733,21 +4734,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="75">
+    <row r="83" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>83</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F83" s="9">
         <v>2015</v>
@@ -4769,21 +4770,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="75">
+    <row r="84" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>84</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F84" s="9">
         <v>2015</v>
@@ -4805,21 +4806,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="60">
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>85</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>230</v>
+        <v>368</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F85" s="9">
         <v>2017</v>
@@ -4841,21 +4842,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="75">
+    <row r="86" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>86</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F86" s="9">
         <v>2017</v>
@@ -4877,21 +4878,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="30">
+    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>87</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F87" s="9">
         <v>2017</v>
@@ -4913,21 +4914,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="75">
+    <row r="88" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>88</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F88" s="9">
         <v>2017</v>
@@ -4942,28 +4943,28 @@
         <v>1</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="6">
         <v>92120</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="30">
+    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>89</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F89" s="9">
         <v>2018</v>
@@ -4985,21 +4986,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="75">
+    <row r="90" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>90</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F90" s="9">
         <v>2018</v>
@@ -5021,21 +5022,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="45">
+    <row r="91" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>91</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F91" s="9">
         <v>2018</v>
@@ -5057,21 +5058,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="30">
+    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>92</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>253</v>
+        <v>398</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F92" s="9">
         <v>2014</v>
@@ -5093,21 +5094,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="45">
+    <row r="93" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>93</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F93" s="9">
         <v>2016</v>
@@ -5129,21 +5130,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="45">
+    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>94</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F94" s="9">
         <v>2016</v>
@@ -5165,21 +5166,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="45">
+    <row r="95" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>95</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F95" s="9">
         <v>2016</v>
@@ -5201,21 +5202,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="45">
+    <row r="96" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>96</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F96" s="9">
         <v>2017</v>
@@ -5238,21 +5239,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="45">
+    <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>97</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F97" s="9">
         <v>2018</v>
@@ -5275,21 +5276,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="45">
+    <row r="98" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>98</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F98" s="9">
         <v>2016</v>
@@ -5311,21 +5312,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="45">
+    <row r="99" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>99</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F99" s="9">
         <v>2015</v>
@@ -5347,21 +5348,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="105">
+    <row r="100" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>100</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F100" s="9">
         <v>2016</v>
@@ -5384,21 +5385,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="45">
+    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>101</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F101" s="9">
         <v>2015</v>
@@ -5420,21 +5421,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="30">
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>102</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>266</v>
+        <v>399</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F102" s="9">
         <v>2018</v>
@@ -5456,21 +5457,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="30">
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>103</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>266</v>
+        <v>399</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F103" s="9">
         <v>2017</v>
@@ -5492,21 +5493,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="30">
+    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>104</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>266</v>
+        <v>399</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F104" s="9">
         <v>2018</v>
@@ -5528,21 +5529,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="30">
+    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>105</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>266</v>
+        <v>399</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F105" s="9">
         <v>2018</v>
@@ -5564,21 +5565,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="75">
+    <row r="106" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>106</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F106" s="9">
         <v>2014</v>
@@ -5600,21 +5601,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="45">
+    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>107</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F107" s="9">
         <v>2015</v>
@@ -5636,21 +5637,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="45">
+    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>108</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F108" s="9">
         <v>2016</v>
@@ -5668,27 +5669,27 @@
         <v>2809800000</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L108" s="6">
         <v>92120</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="60">
+    <row r="109" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>109</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>145</v>
+        <v>402</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F109" s="9">
         <v>2018</v>
@@ -5711,21 +5712,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="105">
+    <row r="110" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>110</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F110" s="9">
         <v>2018</v>
@@ -5748,21 +5749,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="45">
+    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>111</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F111" s="9">
         <v>2017</v>
@@ -5784,21 +5785,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="45">
+    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>112</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F112" s="9">
         <v>2017</v>
@@ -5820,21 +5821,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="30">
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>113</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F113" s="9">
         <v>2014</v>
@@ -5856,21 +5857,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="120">
+    <row r="114" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>114</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>284</v>
+        <v>378</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F114" s="9">
         <v>2017</v>
@@ -5892,18 +5893,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="60">
+    <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>115</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>8</v>
@@ -5928,18 +5929,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="60">
+    <row r="116" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>116</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>8</v>
@@ -5964,18 +5965,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="60">
+    <row r="117" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>117</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>8</v>
@@ -6000,21 +6001,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="60">
+    <row r="118" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>118</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="F118" s="9">
         <v>2018</v>
@@ -6036,21 +6037,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="90">
+    <row r="119" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>119</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F119" s="9">
         <v>2018</v>
@@ -6072,21 +6073,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="45">
+    <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>120</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F120" s="9">
         <v>2018</v>
@@ -6108,21 +6109,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="90">
+    <row r="121" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>121</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F121" s="9">
         <v>2018</v>
@@ -6144,21 +6145,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="45">
+    <row r="122" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>122</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F122" s="9">
         <v>2018</v>
@@ -6181,21 +6182,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="45">
+    <row r="123" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>123</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F123" s="9">
         <v>2018</v>
@@ -6218,21 +6219,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="45">
+    <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>124</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F124" s="9">
         <v>2018</v>
@@ -6254,21 +6255,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="45">
+    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>125</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F125" s="9">
         <v>2018</v>
@@ -6291,21 +6292,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="75">
+    <row r="126" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>126</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F126" s="9">
         <v>2018</v>
@@ -6327,21 +6328,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="30">
+    <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>127</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>309</v>
+        <v>404</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F127" s="9">
         <v>2018</v>
@@ -6364,21 +6365,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="75">
+    <row r="128" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>128</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F128" s="9">
         <v>2018</v>
@@ -6401,21 +6402,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="45">
+    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>129</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F129" s="9">
         <v>2018</v>
@@ -6438,21 +6439,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="90">
+    <row r="130" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>130</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F130" s="9">
         <v>2018</v>
@@ -6474,21 +6475,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="45">
+    <row r="131" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>131</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F131" s="9">
         <v>2018</v>
@@ -6510,21 +6511,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="45">
+    <row r="132" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>132</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="F132" s="9">
         <v>2018</v>
@@ -6546,21 +6547,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="60">
+    <row r="133" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>133</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F133" s="9">
         <v>2018</v>
@@ -6582,21 +6583,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="45">
+    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>134</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="F134" s="9">
         <v>2018</v>
@@ -6618,21 +6619,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="45">
+    <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>135</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F135" s="9">
         <v>2015</v>
@@ -6654,18 +6655,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="45">
+    <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>136</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>8</v>
@@ -6690,18 +6691,18 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="45">
+    <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>137</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>8</v>
@@ -6726,21 +6727,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="30">
+    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>138</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F138" s="9">
         <v>2018</v>
@@ -6763,21 +6764,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="45">
+    <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>139</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F139" s="9">
         <v>2019</v>
@@ -6799,21 +6800,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="150">
+    <row r="140" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>140</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="F140" s="9">
         <v>2015</v>
@@ -6835,21 +6836,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="60">
+    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>141</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="F141" s="9">
         <v>2017</v>
@@ -6871,21 +6872,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="45">
+    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>142</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="F142" s="9">
         <v>2018</v>
@@ -6907,21 +6908,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="45">
+    <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>143</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F143" s="9">
         <v>2017</v>
@@ -6943,21 +6944,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="60">
+    <row r="144" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>144</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F144" s="9">
         <v>2017</v>
@@ -6979,21 +6980,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="105">
+    <row r="145" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>145</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F145" s="9">
         <v>2018</v>
@@ -7015,21 +7016,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="60">
+    <row r="146" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>146</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F146" s="9">
         <v>2019</v>
@@ -7051,21 +7052,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="45">
+    <row r="147" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>147</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F147" s="9">
         <v>2016</v>
@@ -7087,21 +7088,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="45">
+    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>148</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F148" s="9">
         <v>2019</v>
@@ -7123,21 +7124,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="60">
+    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>149</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F149" s="9">
         <v>2019</v>
@@ -7159,21 +7160,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="120">
+    <row r="150" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>150</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F150" s="9">
         <v>2019</v>
@@ -7195,21 +7196,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="60">
+    <row r="151" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>151</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F151" s="9">
         <v>2019</v>
@@ -7231,21 +7232,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="60">
+    <row r="152" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>152</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F152" s="9">
         <v>2016</v>
@@ -7267,21 +7268,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="30">
+    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>153</v>
       </c>
       <c r="B153" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D153" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C153" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="E153" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F153" s="9">
         <v>2019</v>
@@ -7303,21 +7304,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="45">
+    <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>154</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F154" s="9">
         <v>2019</v>
@@ -7339,21 +7340,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="45">
+    <row r="155" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>155</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F155" s="9">
         <v>2019</v>
@@ -7375,21 +7376,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="60">
+    <row r="156" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>156</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F156" s="9">
         <v>2019</v>
@@ -7411,21 +7412,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="45">
+    <row r="157" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>157</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F157" s="9">
         <v>2019</v>
@@ -7447,19 +7448,19 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="135">
+    <row r="158" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>158</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F158" s="9">
         <v>2019</v>
@@ -7481,19 +7482,19 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="135">
+    <row r="159" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>159</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F159" s="9">
         <v>2019</v>
@@ -7515,19 +7516,19 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="135">
+    <row r="160" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>160</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F160" s="9">
         <v>2019</v>
@@ -7549,21 +7550,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="60">
+    <row r="161" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>161</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F161" s="9">
         <v>2019</v>
@@ -7585,21 +7586,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="75">
+    <row r="162" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>162</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F162" s="9">
         <v>2019</v>
@@ -7621,7 +7622,7 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="45">
+    <row r="163" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>163</v>
       </c>
@@ -7629,13 +7630,13 @@
         <v>0</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F163" s="7">
         <v>2020</v>
@@ -7657,21 +7658,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="150">
+    <row r="164" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>164</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="E164" s="20" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="F164" s="9">
         <v>2019</v>
@@ -7693,12 +7694,12 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="75">
+    <row r="165" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>165</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="C165" s="15"/>
       <c r="D165" s="9"/>
@@ -7723,15 +7724,15 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="90">
+    <row r="166" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>166</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -7755,12 +7756,12 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="90">
+    <row r="167" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>167</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -7785,21 +7786,21 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="45">
+    <row r="168" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>168</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F168" s="7">
         <v>2020</v>
@@ -7821,12 +7822,12 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="60">
+    <row r="169" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>169</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -7852,12 +7853,12 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="60">
+    <row r="170" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>170</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -7882,12 +7883,12 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="60">
+    <row r="171" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>171</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="C171" s="22"/>
       <c r="D171" s="22"/>
@@ -7912,12 +7913,12 @@
         <v>92120</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="45">
+    <row r="172" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="24">
         <v>172</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
